--- a/00_Project/Hyperparameters.xlsx
+++ b/00_Project/Hyperparameters.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/634d2c18404eb9fd/Dokumente/GitHub/MIALab_project/00_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="192" documentId="8_{EE91568B-3D1D-404C-BF74-75C386A687B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBE75BDA-FFC6-4F93-938B-D2D500F4542E}"/>
+  <xr:revisionPtr revIDLastSave="203" documentId="8_{EE91568B-3D1D-404C-BF74-75C386A687B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71C4BB21-C890-475D-9BF4-723E9937F208}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="15785" yWindow="4085" windowWidth="1920" windowHeight="515" xr2:uid="{BC37E6EC-A376-4723-95C1-5A94D99290C6}"/>
+    <workbookView xWindow="12315" yWindow="-18675" windowWidth="6315" windowHeight="4545" xr2:uid="{BC37E6EC-A376-4723-95C1-5A94D99290C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="27">
   <si>
     <t>results...</t>
   </si>
@@ -116,24 +115,6 @@
   </si>
   <si>
     <t>atistic</t>
-  </si>
-  <si>
-    <t>Sonntag:</t>
-  </si>
-  <si>
-    <t>Samstag:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ski </t>
-  </si>
-  <si>
-    <t>ski</t>
-  </si>
-  <si>
-    <t>F1-Quali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rennen </t>
   </si>
 </sst>
 </file>
@@ -694,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D91D1810-FAA1-446D-91BE-B6910F4FBC0C}">
   <dimension ref="B2:AL113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AK8" sqref="AK8"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AL2" sqref="AL2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -733,15 +714,9 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
-      <c r="AJ2" s="12">
-        <v>0.4375</v>
-      </c>
-      <c r="AK2" s="12">
-        <v>0.5625</v>
-      </c>
-      <c r="AL2" s="12">
-        <v>0.625</v>
-      </c>
+      <c r="AJ2" s="12"/>
+      <c r="AK2" s="12"/>
+      <c r="AL2" s="12"/>
     </row>
     <row r="3" spans="2:38" x14ac:dyDescent="0.75">
       <c r="B3" t="s">
@@ -760,18 +735,6 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
-      <c r="AI3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="5" spans="2:38" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="B5" s="1" t="s">
@@ -803,18 +766,6 @@
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
-      <c r="AI5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="6" spans="2:38" x14ac:dyDescent="0.75">
       <c r="B6" s="1" t="s">
